--- a/data/2025_필지관리_v3.0.xlsx
+++ b/data/2025_필지관리_v3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://godaedong.sharepoint.com/sites/msteams_568ebf/Shared Documents/General/3. 정밀농업서비스 개발 관련 자료/필지관리/2025년/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\회사관련\soil_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4117" documentId="11_7B5B82321FE8D897C4F42ED58DC5B7055CA92982" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357A598D-A685-4657-AE06-F676C83D0A03}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD04CA-B33C-4CFA-BB78-C4380A50EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="29310" windowHeight="14910" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25년 실증 필지" sheetId="1" r:id="rId1"/>
@@ -4642,15 +4642,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="182" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
+    <numFmt numFmtId="184" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -5540,7 +5540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5554,31 +5554,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5587,7 +5587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5596,10 +5596,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5608,7 +5608,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5623,34 +5623,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -5662,7 +5662,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5722,13 +5722,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -5743,25 +5743,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
@@ -5770,10 +5770,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
@@ -5815,19 +5815,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5842,7 +5842,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -5893,22 +5893,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -5944,13 +5944,13 @@
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5977,7 +5977,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5986,7 +5986,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6022,7 +6022,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6049,22 +6049,22 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6088,7 +6088,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6112,7 +6112,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6124,7 +6124,7 @@
     <xf numFmtId="3" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6136,7 +6136,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="14" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6145,25 +6145,25 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6175,10 +6175,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6205,19 +6205,19 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6259,10 +6259,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6307,16 +6307,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6367,10 +6367,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -27167,11 +27167,11 @@
   </sheetPr>
   <dimension ref="B1:BB86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:Y3 B6:Y6 B11:Y11 B18:Y24 B27:Y30 B32:Y36 B48:Y54 B56:Y58 B61:Y78 B80:Y81"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:Y3 B6:Y6 B11:Y11 B18:Y24 B27:Y30 B32:Y36 B48:Y54 B56:Y58 B61:Y78 B80:Y81"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28396,7 +28396,7 @@
       <c r="BA15" s="12"/>
       <c r="BB15" s="12"/>
     </row>
-    <row r="16" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23">
         <v>11</v>
       </c>
@@ -28482,7 +28482,7 @@
       <c r="BA16" s="12"/>
       <c r="BB16" s="12"/>
     </row>
-    <row r="17" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="21">
         <v>12</v>
       </c>
@@ -28568,7 +28568,7 @@
       <c r="BA17" s="12"/>
       <c r="BB17" s="12"/>
     </row>
-    <row r="18" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="21">
         <v>13</v>
       </c>
@@ -28654,7 +28654,7 @@
       <c r="BA18" s="12"/>
       <c r="BB18" s="12"/>
     </row>
-    <row r="19" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B19" s="23">
         <v>14</v>
       </c>
@@ -28740,7 +28740,7 @@
       <c r="BA19" s="12"/>
       <c r="BB19" s="12"/>
     </row>
-    <row r="20" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B20" s="21">
         <v>15</v>
       </c>
@@ -28824,7 +28824,7 @@
       <c r="BA20" s="12"/>
       <c r="BB20" s="12"/>
     </row>
-    <row r="21" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
         <v>16</v>
       </c>
@@ -28908,7 +28908,7 @@
       <c r="BA21" s="12"/>
       <c r="BB21" s="12"/>
     </row>
-    <row r="22" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>17</v>
       </c>
@@ -28992,7 +28992,7 @@
       <c r="BA22" s="12"/>
       <c r="BB22" s="12"/>
     </row>
-    <row r="23" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="21">
         <v>18</v>
       </c>
@@ -29076,7 +29076,7 @@
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
     </row>
-    <row r="24" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="21">
         <v>19</v>
       </c>
@@ -29160,7 +29160,7 @@
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
     </row>
-    <row r="25" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
         <v>20</v>
       </c>
@@ -29244,7 +29244,7 @@
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
     </row>
-    <row r="26" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B26" s="21">
         <v>21</v>
       </c>
@@ -29330,7 +29330,7 @@
       <c r="BA26" s="12"/>
       <c r="BB26" s="12"/>
     </row>
-    <row r="27" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="21">
         <v>22</v>
       </c>
@@ -29416,7 +29416,7 @@
       <c r="BA27" s="12"/>
       <c r="BB27" s="12"/>
     </row>
-    <row r="28" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B28" s="23">
         <v>23</v>
       </c>
@@ -29502,7 +29502,7 @@
       <c r="BA28" s="12"/>
       <c r="BB28" s="12"/>
     </row>
-    <row r="29" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="21">
         <v>24</v>
       </c>
@@ -29588,7 +29588,7 @@
       <c r="BA29" s="12"/>
       <c r="BB29" s="12"/>
     </row>
-    <row r="30" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="21">
         <v>25</v>
       </c>
@@ -29674,7 +29674,7 @@
       <c r="BA30" s="12"/>
       <c r="BB30" s="12"/>
     </row>
-    <row r="31" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B31" s="23">
         <v>26</v>
       </c>
@@ -29760,7 +29760,7 @@
       <c r="BA31" s="12"/>
       <c r="BB31" s="12"/>
     </row>
-    <row r="32" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="21">
         <v>27</v>
       </c>
@@ -29846,7 +29846,7 @@
       <c r="BA32" s="12"/>
       <c r="BB32" s="12"/>
     </row>
-    <row r="33" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="21">
         <v>28</v>
       </c>
@@ -29932,7 +29932,7 @@
       <c r="BA33" s="12"/>
       <c r="BB33" s="12"/>
     </row>
-    <row r="34" spans="2:54" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <v>29</v>
       </c>
@@ -30018,7 +30018,7 @@
       <c r="BA34" s="12"/>
       <c r="BB34" s="12"/>
     </row>
-    <row r="35" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="193">
         <v>30</v>
       </c>
@@ -30107,7 +30107,7 @@
       <c r="BA35" s="207"/>
       <c r="BB35" s="207"/>
     </row>
-    <row r="36" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="193">
         <v>31</v>
       </c>
@@ -30196,7 +30196,7 @@
       <c r="BA36" s="207"/>
       <c r="BB36" s="207"/>
     </row>
-    <row r="37" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="197">
         <v>32</v>
       </c>
@@ -30285,7 +30285,7 @@
       <c r="BA37" s="207"/>
       <c r="BB37" s="207"/>
     </row>
-    <row r="38" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="193">
         <v>33</v>
       </c>
@@ -30374,7 +30374,7 @@
       <c r="BA38" s="207"/>
       <c r="BB38" s="207"/>
     </row>
-    <row r="39" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="193">
         <v>34</v>
       </c>
@@ -30463,7 +30463,7 @@
       <c r="BA39" s="207"/>
       <c r="BB39" s="207"/>
     </row>
-    <row r="40" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="197">
         <v>35</v>
       </c>
@@ -30552,7 +30552,7 @@
       <c r="BA40" s="207"/>
       <c r="BB40" s="207"/>
     </row>
-    <row r="41" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="193">
         <v>36</v>
       </c>
@@ -30641,7 +30641,7 @@
       <c r="BA41" s="207"/>
       <c r="BB41" s="207"/>
     </row>
-    <row r="42" spans="2:54" s="208" customFormat="1" ht="18" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" s="208" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="193">
         <v>37</v>
       </c>
@@ -30819,7 +30819,7 @@
       <c r="BA43" s="207"/>
       <c r="BB43" s="207"/>
     </row>
-    <row r="44" spans="2:54" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21">
         <v>39</v>
       </c>
@@ -30905,7 +30905,7 @@
       <c r="BA44" s="12"/>
       <c r="BB44" s="12"/>
     </row>
-    <row r="45" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="21">
         <v>40</v>
       </c>
@@ -30991,7 +30991,7 @@
       <c r="BA45" s="12"/>
       <c r="BB45" s="12"/>
     </row>
-    <row r="46" spans="2:54" s="106" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" s="106" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="23">
         <v>41</v>
       </c>
@@ -31077,7 +31077,7 @@
       <c r="BA46" s="12"/>
       <c r="BB46" s="12"/>
     </row>
-    <row r="47" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="21">
         <v>42</v>
       </c>
@@ -31163,7 +31163,7 @@
       <c r="BA47" s="105"/>
       <c r="BB47" s="105"/>
     </row>
-    <row r="48" spans="2:54" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21">
         <v>43</v>
       </c>
@@ -31249,7 +31249,7 @@
       <c r="BA48" s="12"/>
       <c r="BB48" s="12"/>
     </row>
-    <row r="49" spans="2:54" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23">
         <v>44</v>
       </c>
@@ -31335,7 +31335,7 @@
       <c r="BA49" s="12"/>
       <c r="BB49" s="12"/>
     </row>
-    <row r="50" spans="2:54" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="21">
         <v>45</v>
       </c>
@@ -31421,7 +31421,7 @@
       <c r="BA50" s="12"/>
       <c r="BB50" s="12"/>
     </row>
-    <row r="51" spans="2:54" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="21">
         <v>46</v>
       </c>
@@ -31507,7 +31507,7 @@
       <c r="BA51" s="12"/>
       <c r="BB51" s="12"/>
     </row>
-    <row r="52" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="23">
         <v>47</v>
       </c>
@@ -31593,7 +31593,7 @@
       <c r="BA52" s="12"/>
       <c r="BB52" s="12"/>
     </row>
-    <row r="53" spans="2:54" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="21">
         <v>48</v>
       </c>
@@ -33814,7 +33814,12 @@
   <autoFilter ref="B5:BB84" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="화성"/>
+        <filter val="김제"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="콩"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:BB53">
@@ -33893,8 +33898,8 @@
   </sheetPr>
   <dimension ref="B1:BE179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="G98" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="G103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:Y3 B6:Y6 B11:Y11 B18:Y24 B27:Y30 B32:Y36 B48:Y54 B56:Y58 B61:Y78 B80:Y81"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:Y3 B6:Y6 B11:Y11 B18:Y24 B27:Y30 B32:Y36 B48:Y54 B56:Y58 B61:Y78 B80:Y81"/>
       <selection pane="bottomRight" activeCell="A110" sqref="A110:XFD113"/>
@@ -74238,6 +74243,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2072995-9573-4763-8ef9-ccd2211cdc67" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f53a7b80-c772-4be7-9753-cce4d137279b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -74246,7 +74262,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F5054E893517984C855A57020CDEA3AC" ma:contentTypeVersion="15" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="f94d55bb1967100751f5725d524c5862">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f53a7b80-c772-4be7-9753-cce4d137279b" xmlns:ns3="c2072995-9573-4763-8ef9-ccd2211cdc67" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92966e0db119767b17d3984cae0bec69" ns2:_="" ns3:_="">
     <xsd:import namespace="f53a7b80-c772-4be7-9753-cce4d137279b"/>
@@ -74481,18 +74497,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2072995-9573-4763-8ef9-ccd2211cdc67" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f53a7b80-c772-4be7-9753-cce4d137279b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1DB44C-D255-4BE7-BFAD-5858FA00B2A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
+    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C536B3A-3C0D-483A-8176-E53C9E33818C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -74500,7 +74522,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC221CC2-DB94-4E41-9237-8F498BB3C457}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -74517,21 +74539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B1DB44C-D255-4BE7-BFAD-5858FA00B2A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c2072995-9573-4763-8ef9-ccd2211cdc67"/>
-    <ds:schemaRef ds:uri="f53a7b80-c772-4be7-9753-cce4d137279b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>